--- a/my-app/regionseng/11/infrastructure/infrastructure.xlsx
+++ b/my-app/regionseng/11/infrastructure/infrastructure.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>The water supply system installed in the dwelling</t>
   </si>
@@ -31,14 +31,8 @@
     <t>Other sources</t>
   </si>
   <si>
-    <t>The share of the households provided with electricity</t>
-  </si>
-  <si>
-    <t>The share of the households provided with central system of gas supply</t>
-  </si>
-  <si>
     <r>
-      <t xml:space="preserve">The share of the households provided with electricity in Mtskheta-Mtianeti region
+      <t xml:space="preserve">The share of the households provided with electricity and central system of gas supply in Tbilisi
 </t>
     </r>
     <r>
@@ -52,8 +46,14 @@
     </r>
   </si>
   <si>
+    <t>The share of the households provided with electricity</t>
+  </si>
+  <si>
+    <t>The share of the households provided with central system of gas supply</t>
+  </si>
+  <si>
     <r>
-      <t xml:space="preserve">The share of the households provided with central system of gas supply in Mtskheta-Mtianeti* region
+      <t xml:space="preserve">Distribution of the households by the basic supply sources of the drinking water in Tbilisi
 </t>
     </r>
     <r>
@@ -66,27 +66,6 @@
       <t>(%)</t>
     </r>
   </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Distribution of the households by the basic supply sources of the drinking water in Mtskheta-Mtianeti** region
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>(%)</t>
-    </r>
-  </si>
-  <si>
-    <t>* The data of 2011-2018 includes Mtskheta-Mtianeti, Guria and Samtskhe-Javakheti regions.</t>
-  </si>
-  <si>
-    <t>** The data of 2011-2018 includes Mtskheta-Mtianeti, Guria, Samtskhe-Javakheti, Shida Kartli and Adjara A.R. regions.</t>
-  </si>
 </sst>
 </file>
 
@@ -95,13 +74,19 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -132,12 +117,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -154,11 +133,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b/>
       <sz val="10"/>
       <name val="Arial"/>
@@ -166,13 +140,12 @@
     </font>
     <font>
       <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color indexed="8"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -185,7 +158,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -213,53 +186,44 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -268,11 +232,8 @@
     <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -583,7 +544,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M20"/>
+  <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection sqref="A1:M1"/>
@@ -591,13 +552,13 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="75.85546875" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="66.85546875" style="3" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B1" s="14"/>
       <c r="C1" s="14"/>
@@ -613,65 +574,65 @@
       <c r="M1" s="14"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="5"/>
-      <c r="B2" s="6">
+      <c r="A2" s="4"/>
+      <c r="B2" s="5">
         <v>2011</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="5">
         <v>2012</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="5">
         <v>2013</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="5">
         <v>2014</v>
       </c>
-      <c r="F2" s="6">
+      <c r="F2" s="5">
         <v>2015</v>
       </c>
-      <c r="G2" s="6">
+      <c r="G2" s="5">
         <v>2016</v>
       </c>
-      <c r="H2" s="6">
+      <c r="H2" s="5">
         <v>2017</v>
       </c>
-      <c r="I2" s="6">
+      <c r="I2" s="5">
         <v>2018</v>
       </c>
-      <c r="J2" s="6">
+      <c r="J2" s="5">
         <v>2019</v>
       </c>
-      <c r="K2" s="6">
+      <c r="K2" s="5">
         <v>2020</v>
       </c>
-      <c r="L2" s="6">
+      <c r="L2" s="5">
         <v>2021</v>
       </c>
-      <c r="M2" s="6">
+      <c r="M2" s="5">
         <v>2022</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="7" t="s">
-        <v>5</v>
+      <c r="A3" s="6" t="s">
+        <v>6</v>
       </c>
       <c r="B3" s="10">
+        <v>99.932109701219645</v>
+      </c>
+      <c r="C3" s="10">
+        <v>99.999999999999545</v>
+      </c>
+      <c r="D3" s="10">
         <v>99.999999999999901</v>
       </c>
-      <c r="C3" s="10">
-        <v>100.00000000000011</v>
-      </c>
-      <c r="D3" s="10">
-        <v>100.00000000000033</v>
-      </c>
       <c r="E3" s="10">
-        <v>99.999999999999844</v>
+        <v>100.00000000000016</v>
       </c>
       <c r="F3" s="10">
-        <v>100.00000000000003</v>
+        <v>100.00000000000017</v>
       </c>
       <c r="G3" s="10">
-        <v>99.999999999999901</v>
+        <v>100.0000000000005</v>
       </c>
       <c r="H3" s="10">
         <v>100</v>
@@ -692,432 +653,325 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="14" t="s">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="11">
+        <v>92.121139141900912</v>
+      </c>
+      <c r="C4" s="11">
+        <v>93.594872471917995</v>
+      </c>
+      <c r="D4" s="11">
+        <v>96.194418985450724</v>
+      </c>
+      <c r="E4" s="11">
+        <v>96.27499030509577</v>
+      </c>
+      <c r="F4" s="11">
+        <v>97.615396845150471</v>
+      </c>
+      <c r="G4" s="11">
+        <v>98.370498490969766</v>
+      </c>
+      <c r="H4" s="11">
+        <v>96.995213225442953</v>
+      </c>
+      <c r="I4" s="11">
+        <v>95.977222704826517</v>
+      </c>
+      <c r="J4" s="11">
+        <v>96.243913574126935</v>
+      </c>
+      <c r="K4" s="11">
+        <v>98.279843520038071</v>
+      </c>
+      <c r="L4" s="11">
+        <v>98.618854469539784</v>
+      </c>
+      <c r="M4" s="11">
+        <v>98.947188642071083</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="14"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="5"/>
-      <c r="B7" s="6">
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="14"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8" s="4"/>
+      <c r="B8" s="5">
         <v>2011</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C8" s="5">
         <v>2012</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D8" s="5">
         <v>2013</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E8" s="5">
         <v>2014</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F8" s="5">
         <v>2015</v>
       </c>
-      <c r="G7" s="6">
+      <c r="G8" s="5">
         <v>2016</v>
       </c>
-      <c r="H7" s="6">
+      <c r="H8" s="5">
         <v>2017</v>
       </c>
-      <c r="I7" s="6">
+      <c r="I8" s="5">
         <v>2018</v>
       </c>
-      <c r="J7" s="6">
+      <c r="J8" s="5">
         <v>2019</v>
       </c>
-      <c r="K7" s="6">
+      <c r="K8" s="5">
         <v>2020</v>
       </c>
-      <c r="L7" s="6">
+      <c r="L8" s="5">
         <v>2021</v>
       </c>
-      <c r="M7" s="6">
+      <c r="M8" s="5">
         <v>2022</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="11">
-        <v>23.645856307015265</v>
-      </c>
-      <c r="C8" s="11">
-        <v>22.175096643680153</v>
-      </c>
-      <c r="D8" s="11">
-        <v>39.050934081237976</v>
-      </c>
-      <c r="E8" s="11">
-        <v>49.197446943286806</v>
-      </c>
-      <c r="F8" s="11">
-        <v>53.937917268463295</v>
-      </c>
-      <c r="G8" s="11">
-        <v>63.56691188323785</v>
-      </c>
-      <c r="H8" s="11">
-        <v>63.60452656329084</v>
-      </c>
-      <c r="I8" s="11">
-        <v>64.231319795132222</v>
-      </c>
-      <c r="J8" s="11">
-        <v>83.929883873851452</v>
-      </c>
-      <c r="K8" s="11">
-        <v>85.514778288549323</v>
-      </c>
-      <c r="L8" s="11">
-        <v>88.027880047639769</v>
-      </c>
-      <c r="M8" s="11">
-        <v>89.75592520247244</v>
-      </c>
-    </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="15"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="15"/>
-      <c r="L9" s="15"/>
-      <c r="M9" s="15"/>
+      <c r="A9" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="12">
+        <v>96.788210378451083</v>
+      </c>
+      <c r="C9" s="12">
+        <v>96.933085576719989</v>
+      </c>
+      <c r="D9" s="12">
+        <v>98.152903909707575</v>
+      </c>
+      <c r="E9" s="12">
+        <v>98.181780273381548</v>
+      </c>
+      <c r="F9" s="12">
+        <v>98.806980124791295</v>
+      </c>
+      <c r="G9" s="12">
+        <v>98.999183211470495</v>
+      </c>
+      <c r="H9" s="12">
+        <v>97.109076881636057</v>
+      </c>
+      <c r="I9" s="12">
+        <v>97.72130538503022</v>
+      </c>
+      <c r="J9" s="12">
+        <v>98.736871975617603</v>
+      </c>
+      <c r="K9" s="12">
+        <v>99.496698149210332</v>
+      </c>
+      <c r="L9" s="12">
+        <v>99.722811252066165</v>
+      </c>
+      <c r="M9" s="12">
+        <v>99.864280120643784</v>
+      </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
+      <c r="A10" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" s="12">
+        <v>2.7570021723176823</v>
+      </c>
+      <c r="C10" s="12">
+        <v>2.8163059086827764</v>
+      </c>
+      <c r="D10" s="12">
+        <v>1.8470960902924207</v>
+      </c>
+      <c r="E10" s="12">
+        <v>1.3737691428886356</v>
+      </c>
+      <c r="F10" s="12">
+        <v>1.0453120289594584</v>
+      </c>
+      <c r="G10" s="12">
+        <v>1.0008167885294925</v>
+      </c>
+      <c r="H10" s="12">
+        <v>2.7676333857141509</v>
+      </c>
+      <c r="I10" s="12">
+        <v>2.2786946149697811</v>
+      </c>
+      <c r="J10" s="12">
+        <v>1.2631280243819756</v>
+      </c>
+      <c r="K10" s="12">
+        <v>0.50330185078967649</v>
+      </c>
+      <c r="L10" s="12">
+        <v>0.27718874793382958</v>
+      </c>
+      <c r="M10" s="12">
+        <v>0.13571987935621463</v>
+      </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-    </row>
-    <row r="12" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="14"/>
-      <c r="L12" s="14"/>
-      <c r="M12" s="14"/>
+      <c r="A11" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" s="12">
+        <v>5.8329839423488732E-2</v>
+      </c>
+      <c r="C11" s="12">
+        <v>0</v>
+      </c>
+      <c r="D11" s="12">
+        <v>0</v>
+      </c>
+      <c r="E11" s="12">
+        <v>0.44445058372981944</v>
+      </c>
+      <c r="F11" s="12">
+        <v>0.14770784624923974</v>
+      </c>
+      <c r="G11" s="12">
+        <v>0</v>
+      </c>
+      <c r="H11" s="12">
+        <v>0</v>
+      </c>
+      <c r="I11" s="12">
+        <v>0</v>
+      </c>
+      <c r="J11" s="12">
+        <v>0</v>
+      </c>
+      <c r="K11" s="12">
+        <v>0</v>
+      </c>
+      <c r="L11" s="12">
+        <v>0</v>
+      </c>
+      <c r="M11" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A12" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="12">
+        <v>0.22311544163958236</v>
+      </c>
+      <c r="C12" s="12">
+        <v>0.19636432258778883</v>
+      </c>
+      <c r="D12" s="12">
+        <v>0</v>
+      </c>
+      <c r="E12" s="12">
+        <v>0</v>
+      </c>
+      <c r="F12" s="12">
+        <v>0</v>
+      </c>
+      <c r="G12" s="12">
+        <v>0</v>
+      </c>
+      <c r="H12" s="12">
+        <v>0.12328973264979608</v>
+      </c>
+      <c r="I12" s="12">
+        <v>0</v>
+      </c>
+      <c r="J12" s="12">
+        <v>0</v>
+      </c>
+      <c r="K12" s="12">
+        <v>0</v>
+      </c>
+      <c r="L12" s="12">
+        <v>0</v>
+      </c>
+      <c r="M12" s="12">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A13" s="5"/>
-      <c r="B13" s="6">
-        <v>2011</v>
-      </c>
-      <c r="C13" s="6">
-        <v>2012</v>
-      </c>
-      <c r="D13" s="6">
-        <v>2013</v>
-      </c>
-      <c r="E13" s="6">
-        <v>2014</v>
-      </c>
-      <c r="F13" s="6">
-        <v>2015</v>
-      </c>
-      <c r="G13" s="6">
-        <v>2016</v>
-      </c>
-      <c r="H13" s="6">
-        <v>2017</v>
-      </c>
-      <c r="I13" s="6">
-        <v>2018</v>
-      </c>
-      <c r="J13" s="6">
-        <v>2019</v>
-      </c>
-      <c r="K13" s="6">
-        <v>2020</v>
-      </c>
-      <c r="L13" s="6">
-        <v>2021</v>
-      </c>
-      <c r="M13" s="6">
-        <v>2022</v>
+      <c r="A13" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="13">
+        <v>0.17334216816816209</v>
+      </c>
+      <c r="C13" s="13">
+        <v>5.4244192009428489E-2</v>
+      </c>
+      <c r="D13" s="13">
+        <v>0</v>
+      </c>
+      <c r="E13" s="13">
+        <v>0</v>
+      </c>
+      <c r="F13" s="13">
+        <v>0</v>
+      </c>
+      <c r="G13" s="13">
+        <v>0</v>
+      </c>
+      <c r="H13" s="13">
+        <v>0</v>
+      </c>
+      <c r="I13" s="13">
+        <v>0</v>
+      </c>
+      <c r="J13" s="13">
+        <v>0</v>
+      </c>
+      <c r="K13" s="13">
+        <v>0</v>
+      </c>
+      <c r="L13" s="13">
+        <v>0</v>
+      </c>
+      <c r="M13" s="13">
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A14" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B14" s="12">
-        <v>48.585042910653065</v>
-      </c>
-      <c r="C14" s="12">
-        <v>50.272255303730191</v>
-      </c>
-      <c r="D14" s="12">
-        <v>49.768875508564477</v>
-      </c>
-      <c r="E14" s="12">
-        <v>48.979591459642151</v>
-      </c>
-      <c r="F14" s="12">
-        <v>50.556621379415674</v>
-      </c>
-      <c r="G14" s="12">
-        <v>50.020723475028184</v>
-      </c>
-      <c r="H14" s="12">
-        <v>48.853913539840569</v>
-      </c>
-      <c r="I14" s="12">
-        <v>53.163268347960454</v>
-      </c>
-      <c r="J14" s="12">
-        <v>68.57183939458109</v>
-      </c>
-      <c r="K14" s="12">
-        <v>71.080380431084151</v>
-      </c>
-      <c r="L14" s="12">
-        <v>78.527788722796473</v>
-      </c>
-      <c r="M14" s="12">
-        <v>84.167766729854108</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A15" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B15" s="12">
-        <v>30.90452064500278</v>
-      </c>
-      <c r="C15" s="12">
-        <v>27.625036094756158</v>
-      </c>
-      <c r="D15" s="12">
-        <v>22.655797535919604</v>
-      </c>
-      <c r="E15" s="12">
-        <v>21.02318121614368</v>
-      </c>
-      <c r="F15" s="12">
-        <v>17.343047732395103</v>
-      </c>
-      <c r="G15" s="12">
-        <v>15.832232283160666</v>
-      </c>
-      <c r="H15" s="12">
-        <v>16.233480895010004</v>
-      </c>
-      <c r="I15" s="12">
-        <v>14.07353800656729</v>
-      </c>
-      <c r="J15" s="12">
-        <v>16.463774953214102</v>
-      </c>
-      <c r="K15" s="12">
-        <v>16.625487824300535</v>
-      </c>
-      <c r="L15" s="12">
-        <v>16.399408161335767</v>
-      </c>
-      <c r="M15" s="12">
-        <v>11.591838965928565</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A16" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B16" s="12">
-        <v>13.136441919059711</v>
-      </c>
-      <c r="C16" s="12">
-        <v>14.048341523913702</v>
-      </c>
-      <c r="D16" s="12">
-        <v>14.258181731723946</v>
-      </c>
-      <c r="E16" s="12">
-        <v>17.673511195671171</v>
-      </c>
-      <c r="F16" s="12">
-        <v>20.864070130180288</v>
-      </c>
-      <c r="G16" s="12">
-        <v>21.623783868043418</v>
-      </c>
-      <c r="H16" s="12">
-        <v>17.70107378196381</v>
-      </c>
-      <c r="I16" s="12">
-        <v>16.520048687784762</v>
-      </c>
-      <c r="J16" s="12">
-        <v>8.5348751909076785</v>
-      </c>
-      <c r="K16" s="12">
-        <v>7.0007911554438316</v>
-      </c>
-      <c r="L16" s="12">
-        <v>2.3926627516297976</v>
-      </c>
-      <c r="M16" s="12">
-        <v>2.4944582344836177</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A17" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B17" s="12">
-        <v>6.9054322184602857</v>
-      </c>
-      <c r="C17" s="12">
-        <v>7.6992864949848663</v>
-      </c>
-      <c r="D17" s="12">
-        <v>12.458791326821137</v>
-      </c>
-      <c r="E17" s="12">
-        <v>12.323716128542994</v>
-      </c>
-      <c r="F17" s="12">
-        <v>11.23626075800893</v>
-      </c>
-      <c r="G17" s="12">
-        <v>12.479382667608657</v>
-      </c>
-      <c r="H17" s="12">
-        <v>17.089938682694871</v>
-      </c>
-      <c r="I17" s="12">
-        <v>15.997857945146402</v>
-      </c>
-      <c r="J17" s="12">
-        <v>6.4295104612965472</v>
-      </c>
-      <c r="K17" s="12">
-        <v>5.2933405891714802</v>
-      </c>
-      <c r="L17" s="12">
-        <v>2.4995050559652623</v>
-      </c>
-      <c r="M17" s="12">
-        <v>1.6679075801495453</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A18" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B18" s="13">
-        <v>0.46856230682413919</v>
-      </c>
-      <c r="C18" s="13">
-        <v>0.35508058261506859</v>
-      </c>
-      <c r="D18" s="13">
-        <v>0.85835389697083486</v>
-      </c>
-      <c r="E18" s="13">
-        <v>0</v>
-      </c>
-      <c r="F18" s="13">
-        <v>0</v>
-      </c>
-      <c r="G18" s="13">
-        <v>4.3877706159074242E-2</v>
-      </c>
-      <c r="H18" s="13">
-        <v>0.1215931004907453</v>
-      </c>
-      <c r="I18" s="13">
-        <v>0.24528701254108798</v>
-      </c>
-      <c r="J18" s="13">
-        <v>0</v>
-      </c>
-      <c r="K18" s="13">
-        <v>0</v>
-      </c>
-      <c r="L18" s="13">
-        <v>0.18063530827269245</v>
-      </c>
-      <c r="M18" s="13">
-        <v>7.802848958417162E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="B19" s="15"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="15"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="15"/>
-      <c r="K19" s="15"/>
-      <c r="L19" s="15"/>
-      <c r="M19" s="15"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A20" s="3"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
+      <c r="A14" s="1"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="2">
+    <mergeCell ref="A7:M7"/>
     <mergeCell ref="A1:M1"/>
-    <mergeCell ref="A6:M6"/>
-    <mergeCell ref="A9:M9"/>
-    <mergeCell ref="A12:M12"/>
-    <mergeCell ref="A19:M19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>